--- a/biology/Botanique/Cautleya/Cautleya.xlsx
+++ b/biology/Botanique/Cautleya/Cautleya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cautleya est un genre de plante de la famille des Zingiberaceae originaire des régions est de l'Himalaya.
 </t>
@@ -511,16 +523,18 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (16 juil. 2010)[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (16 juil. 2010)
 Cautleya cathcartii Baker (1890)
 Cautleya gracilis (Sm.) Dandy (1932)
 Cautleya gracilis var. gracilis
 Cautleya gracilis var. robusta (K.Schum.) Sanjappa, (1989)
 Cautleya petiolata Baker (1890)
 Cautleya spicata (Sm.) Baker (1890)
-Selon NCBI  (16 juil. 2010)[2]
+Selon NCBI  (16 juil. 2010)
 Cautleya gracilis
 Cautleya spicata</t>
         </is>
@@ -550,9 +564,11 @@
           <t>Espèces aux noms obsolètes et leurs taxons de référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (20 oct. 2011)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (20 oct. 2011) :
 Cautleya cathcartii Baker, (1890) = Cautleya gracilis var. robusta (K.Schum.) Sanjappa, (1989)
 Cautleya gracilis var. gracilior (K.Schum.) Sanjappa, (1989) = Cautleya gracilis var. gracilis
 Cautleya lutea (Royle) Hook.f., (1888) = Cautleya gracilis var. gracilis
